--- a/public/Format_Eng_Dev.xlsx
+++ b/public/Format_Eng_Dev.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E5694B-1CAC-4BB2-994D-02E93C776B3C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053E5FFD-9605-452D-BE9E-EC3D45D65176}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Format_Dev" sheetId="2" r:id="rId1"/>
@@ -1174,15 +1174,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:K9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="15.88671875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="40.5546875" style="6" customWidth="1"/>
     <col min="4" max="4" width="16.88671875" style="6" customWidth="1"/>
     <col min="5" max="5" width="14" style="6" customWidth="1"/>
     <col min="6" max="6" width="14.109375" style="6" customWidth="1"/>
@@ -1352,7 +1352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
